--- a/list/rajadesa/sirnabaya/list_sirnabaya_1.xlsx
+++ b/list/rajadesa/sirnabaya/list_sirnabaya_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\dds req\list\rajadesa\sirnabaya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC215E-E415-416E-BAB0-513357977719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB4EBAC-4386-4AB3-858E-B6E28038C802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A4170CD-5F29-480B-944E-1B0FEA867C5C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
   <si>
     <t>nama</t>
   </si>
@@ -196,130 +196,316 @@
     <t>014</t>
   </si>
   <si>
-    <t>Upah minimum rendah, sulit untuk hidup layak untuk hidup di desa.</t>
-  </si>
-  <si>
-    <t>Pekerjaan sulit dicari, pengangguran meningkat di desa sirnabaya</t>
-  </si>
-  <si>
-    <t>KOKOM KOMARIYAH</t>
-  </si>
-  <si>
-    <t>ALIFIA FATIMATUL MAULA</t>
-  </si>
-  <si>
-    <t>IDA RIADATAM MARDIAH</t>
-  </si>
-  <si>
-    <t>RUSWANDI</t>
-  </si>
-  <si>
-    <t>RUNTINI</t>
-  </si>
-  <si>
-    <t>FERY RIZKI</t>
-  </si>
-  <si>
-    <t>NUNU WISNU</t>
-  </si>
-  <si>
-    <t>DADAN MARDIANSYAH</t>
-  </si>
-  <si>
-    <t>LINDA LIDIA SARI</t>
-  </si>
-  <si>
-    <t>RUSMAN</t>
-  </si>
-  <si>
-    <t>YANTI</t>
-  </si>
-  <si>
-    <t>OMAN ROHMAN</t>
-  </si>
-  <si>
-    <t>ITA SARI</t>
-  </si>
-  <si>
-    <t>MUSTOPA</t>
-  </si>
-  <si>
-    <t>NUNUNG NURAENI</t>
-  </si>
-  <si>
-    <t>ZAIDA AJMAL MUSTHOFA</t>
-  </si>
-  <si>
-    <t>SITI IDA BADRIAH</t>
-  </si>
-  <si>
-    <t>HOBIR ASYARI</t>
-  </si>
-  <si>
-    <t>DEDE</t>
-  </si>
-  <si>
-    <t>JAMAL ABDUL NASIR</t>
-  </si>
-  <si>
-    <t>ENO</t>
-  </si>
-  <si>
-    <t>YEYET</t>
-  </si>
-  <si>
-    <t>PUTRI PURNAMA SARI</t>
-  </si>
-  <si>
-    <t>AMAH</t>
-  </si>
-  <si>
-    <t>JAKARIA</t>
-  </si>
-  <si>
-    <t>SITI YULIANTI</t>
-  </si>
-  <si>
-    <t>KANIA MECA RAMADHANI</t>
-  </si>
-  <si>
-    <t>SUTIANA PAJAR SIDIK</t>
-  </si>
-  <si>
-    <t>ROSMAWATI</t>
-  </si>
-  <si>
-    <t>NURAENI</t>
-  </si>
-  <si>
-    <t>2023-07-01</t>
-  </si>
-  <si>
-    <t>2023-07-02</t>
-  </si>
-  <si>
-    <t>2023-07-03</t>
-  </si>
-  <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-07-05</t>
-  </si>
-  <si>
-    <t>2023-07-06</t>
-  </si>
-  <si>
-    <t>2023-07-07</t>
-  </si>
-  <si>
-    <t>2023-07-08</t>
-  </si>
-  <si>
-    <t>2023-07-09</t>
-  </si>
-  <si>
-    <t>2023-07-10</t>
+    <t>Pekerjaan sulit dicari, pengangguran meningkat di wilayah ini.</t>
+  </si>
+  <si>
+    <t>Upah minimum rendah, sulit untuk hidup layak bagi warga.</t>
+  </si>
+  <si>
+    <t>Lampu jalan di depan rumah saya tidak menyala ketika malam.</t>
+  </si>
+  <si>
+    <t>Jalan di sekitar lingkungan kami berlubang dan perlu diperbaiki.</t>
+  </si>
+  <si>
+    <t>Sampah di taman umum tidak dibersihkan secara teratur.</t>
+  </si>
+  <si>
+    <t>Sistem drainase di daerah kami tidak berfungsi dengan baik saat hujan.</t>
+  </si>
+  <si>
+    <t>Ada kebisingan berlebihan dari pabrik yang mengganggu kenyamanan tinggal kami.</t>
+  </si>
+  <si>
+    <t>Fasilitas olahraga seperti lapangan sepak bola dan lapangan basket rusak dan tidak diperbaiki.</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat penampungan sampah yang cukup di sekitar kami.</t>
+  </si>
+  <si>
+    <t>Air minum dari kran di rumah kami terasa kotor dan berbau.</t>
+  </si>
+  <si>
+    <t>Sekolah setempat kurang memadai dalam menyediakan fasilitas pendidikan yang memadai.</t>
+  </si>
+  <si>
+    <t>Gang-gang di lingkungan kami tidak terawat dan menjadi sarang nyamuk.</t>
+  </si>
+  <si>
+    <t>Perluasan jalan di sekitar kami menyebabkan kemacetan lalu lintas yang parah.</t>
+  </si>
+  <si>
+    <t>Kualitas udara di lingkungan kami buruk karena polusi kendaraan.</t>
+  </si>
+  <si>
+    <t>Rute angkutan umum ke daerah kami tidak memadai untuk masyarakat.</t>
+  </si>
+  <si>
+    <t>Listrik sering mati dan pemadaman berlangsung lama di lingkungan kami.</t>
+  </si>
+  <si>
+    <t>Tidak ada fasilitas kesehatan yang memadai di dekat tempat tinggal kami.</t>
+  </si>
+  <si>
+    <t>Tingkat kejahatan di lingkungan kami meningkat dan perlu keamanan yang lebih baik.</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat bermain untuk anak-anak di sekitar kami.</t>
+  </si>
+  <si>
+    <t>Kualitas air di sungai atau danau terdekat tercemar dan perlu diperbaiki.</t>
+  </si>
+  <si>
+    <t>Ruang publik seperti taman dan area hijau tidak dirawat dengan baik.</t>
+  </si>
+  <si>
+    <t>Kualitas penerangan di jalan-jalan kami buruk dan perlu ditingkatkan.</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat parkir yang memadai di sekitar toko dan pusat perbelanjaan.</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja di lingkungan kami membuat ekonomi warga sulit.</t>
+  </si>
+  <si>
+    <t>Internet di daerah kami tidak stabil dan sering putus.</t>
+  </si>
+  <si>
+    <t>Tidak adanya aksesibilitas bagi orang dengan kebutuhan khusus di tempat umum.</t>
+  </si>
+  <si>
+    <t>Binatang liar seperti anjing liar menjadi masalah di lingkungan kami.</t>
+  </si>
+  <si>
+    <t>Tidak ada jalur pejalan kaki yang aman di sekitar jalan-jalan utama.</t>
+  </si>
+  <si>
+    <t>Tidak adanya ruang terbuka hijau yang cukup di dekat tempat tinggal kami.</t>
+  </si>
+  <si>
+    <t>Tidak ada layanan angkutan umum pada larut malam di wilayah kami.</t>
+  </si>
+  <si>
+    <t>Bangunan yang ditinggalkan dan tidak terawat di sekitar kami menjadi tempat tinggal bagi tikus dan serangga.</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat ibadah yang memadai di daerah kami.</t>
+  </si>
+  <si>
+    <t>ALIFA HIBATILAH</t>
+  </si>
+  <si>
+    <t>ABDUL KHOBIR</t>
+  </si>
+  <si>
+    <t>IDA NURHOLIDAH</t>
+  </si>
+  <si>
+    <t>AAR MUHAMAD HASBI</t>
+  </si>
+  <si>
+    <t>IRPAN RIDWAN</t>
+  </si>
+  <si>
+    <t>NETI SUSANTI</t>
+  </si>
+  <si>
+    <t>ROHIMAH</t>
+  </si>
+  <si>
+    <t>ARIF BUDIYANTO</t>
+  </si>
+  <si>
+    <t>DANY DWI RIZEKI</t>
+  </si>
+  <si>
+    <t>ARSYILA NUR ANNISA</t>
+  </si>
+  <si>
+    <t>ADITYA RIZKI PRATAMA</t>
+  </si>
+  <si>
+    <t>CARWI</t>
+  </si>
+  <si>
+    <t>TATANG JONI</t>
+  </si>
+  <si>
+    <t>MOMON FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>BURHAN</t>
+  </si>
+  <si>
+    <t>IKAH</t>
+  </si>
+  <si>
+    <t>ZAINAL ARIPIN</t>
+  </si>
+  <si>
+    <t>SITI NURAENI</t>
+  </si>
+  <si>
+    <t>DADANG KURNIAWAN</t>
+  </si>
+  <si>
+    <t>REVALANI NAZIRA GUNAWAN</t>
+  </si>
+  <si>
+    <t>KARSO</t>
+  </si>
+  <si>
+    <t>REVALINA VARISA GUNAWAN</t>
+  </si>
+  <si>
+    <t>LILI</t>
+  </si>
+  <si>
+    <t>EDI</t>
+  </si>
+  <si>
+    <t>KIKI MULYANA</t>
+  </si>
+  <si>
+    <t>ANAH</t>
+  </si>
+  <si>
+    <t>ABDUL ROHIM</t>
+  </si>
+  <si>
+    <t>YULI YULIATI</t>
+  </si>
+  <si>
+    <t>MUHAMAD AKBAR NUR RAHMAN</t>
+  </si>
+  <si>
+    <t>SITI NURDIAN PURNAMASARI</t>
+  </si>
+  <si>
+    <t>NAYRA ZAHRA SYAWALIAH</t>
+  </si>
+  <si>
+    <t>ESIH</t>
+  </si>
+  <si>
+    <t>INDA YULIA WINDI</t>
+  </si>
+  <si>
+    <t>DEDI</t>
+  </si>
+  <si>
+    <t>ELAH LAELASARI</t>
+  </si>
+  <si>
+    <t>REFAN PERMANA</t>
+  </si>
+  <si>
+    <t>HAIKAL FAUZI AKBAR</t>
+  </si>
+  <si>
+    <t>SODIKIN</t>
+  </si>
+  <si>
+    <t>ILAH CARKILAH</t>
+  </si>
+  <si>
+    <t>SAVIRA MAULIDA</t>
+  </si>
+  <si>
+    <t>SALMA PUTRI SIDQIAH</t>
+  </si>
+  <si>
+    <t>ADE PEBRIANI</t>
+  </si>
+  <si>
+    <t>KHAIRA LUGNA</t>
+  </si>
+  <si>
+    <t>MOCHAMAD DAWUD</t>
+  </si>
+  <si>
+    <t>ERNA PRATIWI</t>
+  </si>
+  <si>
+    <t>FARIKA MAULIDA</t>
+  </si>
+  <si>
+    <t>PUTRI SRI RIZKI</t>
+  </si>
+  <si>
+    <t>FELICIA KHANZA RHAMADANI</t>
+  </si>
+  <si>
+    <t>FANISA AULIA</t>
+  </si>
+  <si>
+    <t>ALIMIN</t>
+  </si>
+  <si>
+    <t>SITI NURSAMSIYAH</t>
+  </si>
+  <si>
+    <t>SELIA RIFDATUL JANNAH</t>
+  </si>
+  <si>
+    <t>TARSIMI</t>
+  </si>
+  <si>
+    <t>ABDUL</t>
+  </si>
+  <si>
+    <t>WARYO YOGASWARA</t>
+  </si>
+  <si>
+    <t>DAWISAH</t>
+  </si>
+  <si>
+    <t>YAYAN WARYAN</t>
+  </si>
+  <si>
+    <t>EE KESAH ROHMAH</t>
+  </si>
+  <si>
+    <t>ANDEYANSAH ALFATIH</t>
+  </si>
+  <si>
+    <t>HARIS RISWA</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>2023-08-04</t>
+  </si>
+  <si>
+    <t>2023-08-05</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>2023-08-09</t>
+  </si>
+  <si>
+    <t>2023-08-10</t>
+  </si>
+  <si>
+    <t>2023-08-11</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
   </si>
 </sst>
 </file>
@@ -378,11 +564,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -702,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330EDF8F-AF7E-4CFD-AD2A-76F45302569C}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -748,24 +933,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cigoong</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>003</v>
+        <v>006</v>
       </c>
       <c r="F2" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>004</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -778,24 +963,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubang</v>
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>015</v>
+        <v>007</v>
       </c>
       <c r="F3" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>002</v>
-      </c>
-      <c r="G3" s="5" t="str">
+        <v>005</v>
+      </c>
+      <c r="G3" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -808,28 +993,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E4" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>012</v>
       </c>
       <c r="F4" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>006</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H4" s="4" t="s">
+        <v>011</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -838,29 +1023,29 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E5" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>008</v>
       </c>
       <c r="F5" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>005</v>
-      </c>
-      <c r="G5" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
+        <v>003</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -868,28 +1053,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cigoong</v>
+        <v>Kubang</v>
       </c>
       <c r="E6" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>013</v>
       </c>
       <c r="F6" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>011</v>
-      </c>
-      <c r="G6" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>015</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -898,10 +1083,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -909,17 +1094,17 @@
       </c>
       <c r="E7" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>008</v>
+        <v>004</v>
       </c>
       <c r="F7" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>005</v>
       </c>
-      <c r="G7" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -928,28 +1113,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cigoong</v>
+        <v>Kubang</v>
       </c>
       <c r="E8" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>004</v>
       </c>
       <c r="F8" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>013</v>
-      </c>
-      <c r="G8" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>012</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -958,29 +1143,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E9" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>002</v>
       </c>
       <c r="F9" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>002</v>
-      </c>
-      <c r="G9" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>008</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -988,28 +1173,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubangsari</v>
+        <v>Cigoong</v>
       </c>
       <c r="E10" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>007</v>
+        <v>008</v>
       </c>
       <c r="F10" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>013</v>
       </c>
-      <c r="G10" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1018,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -1029,17 +1214,17 @@
       </c>
       <c r="E11" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>003</v>
       </c>
       <c r="F11" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>013</v>
-      </c>
-      <c r="G11" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H11" s="4" t="s">
+        <v>011</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1048,24 +1233,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubangsari</v>
+        <v>Kubang</v>
       </c>
       <c r="E12" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>012</v>
+        <v>010</v>
       </c>
       <c r="F12" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>010</v>
-      </c>
-      <c r="G12" s="5" t="str">
+        <v>007</v>
+      </c>
+      <c r="G12" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1078,28 +1263,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Cigoong</v>
       </c>
       <c r="E13" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>006</v>
+        <v>013</v>
       </c>
       <c r="F13" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>001</v>
-      </c>
-      <c r="G13" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H13" s="4" t="s">
+        <v>008</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1108,28 +1293,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubang</v>
       </c>
       <c r="E14" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>008</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>007</v>
       </c>
-      <c r="F14" s="2" t="str">
-        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>004</v>
-      </c>
-      <c r="G14" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1138,28 +1323,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E15" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>002</v>
       </c>
       <c r="F15" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>004</v>
-      </c>
-      <c r="G15" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H15" s="4" t="s">
+        <v>015</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1168,28 +1353,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Cigoong</v>
       </c>
       <c r="E16" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>004</v>
+        <v>012</v>
       </c>
       <c r="F16" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>010</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H16" s="4" t="s">
+        <v>008</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1198,28 +1383,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Kutasari</v>
       </c>
       <c r="E17" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>001</v>
       </c>
       <c r="F17" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>006</v>
-      </c>
-      <c r="G17" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H17" s="4" t="s">
+        <v>013</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1228,28 +1413,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cigoong</v>
+        <v>Kutasari</v>
       </c>
       <c r="E18" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>003</v>
+        <v>006</v>
       </c>
       <c r="F18" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>015</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H18" s="4" t="s">
+        <v>012</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1258,28 +1443,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubangsari</v>
+        <v>Cigoong</v>
       </c>
       <c r="E19" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>005</v>
+        <v>012</v>
       </c>
       <c r="F19" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>012</v>
-      </c>
-      <c r="G19" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H19" s="4" t="s">
+        <v>003</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1288,28 +1473,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E20" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>002</v>
+        <v>003</v>
       </c>
       <c r="F20" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>002</v>
-      </c>
-      <c r="G20" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H20" s="4" t="s">
+        <v>014</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1318,24 +1503,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubangsari</v>
+        <v>Kutasari</v>
       </c>
       <c r="E21" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>006</v>
+        <v>001</v>
       </c>
       <c r="F21" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>005</v>
-      </c>
-      <c r="G21" s="5" t="str">
+        <v>009</v>
+      </c>
+      <c r="G21" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1348,28 +1533,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Kubang</v>
       </c>
       <c r="E22" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>008</v>
+        <v>014</v>
       </c>
       <c r="F22" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>011</v>
-      </c>
-      <c r="G22" s="5" t="str">
-        <f>conf!$A$2</f>
-        <v>Sirnabaya</v>
-      </c>
-      <c r="H22" s="4" t="s">
+        <v>015</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1378,24 +1563,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubangsari</v>
+        <v>Kubang</v>
       </c>
       <c r="E23" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>001</v>
+        <v>013</v>
       </c>
       <c r="F23" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>015</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1408,10 +1593,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -1419,13 +1604,13 @@
       </c>
       <c r="E24" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>001</v>
+        <v>010</v>
       </c>
       <c r="F24" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>002</v>
-      </c>
-      <c r="G24" s="5" t="str">
+        <v>007</v>
+      </c>
+      <c r="G24" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1438,24 +1623,24 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Cigoong</v>
       </c>
       <c r="E25" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>009</v>
+        <v>007</v>
       </c>
       <c r="F25" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>005</v>
-      </c>
-      <c r="G25" s="5" t="str">
+        <v>006</v>
+      </c>
+      <c r="G25" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1468,10 +1653,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
@@ -1479,13 +1664,13 @@
       </c>
       <c r="E26" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>002</v>
+        <v>012</v>
       </c>
       <c r="F26" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>008</v>
-      </c>
-      <c r="G26" s="5" t="str">
+        <v>003</v>
+      </c>
+      <c r="G26" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1498,24 +1683,24 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E27" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>008</v>
+        <v>009</v>
       </c>
       <c r="F27" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>013</v>
-      </c>
-      <c r="G27" s="5" t="str">
+        <v>010</v>
+      </c>
+      <c r="G27" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1528,24 +1713,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubang</v>
+        <v>Cigoong</v>
       </c>
       <c r="E28" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>013</v>
+        <v>010</v>
       </c>
       <c r="F28" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>003</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="G28" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1558,24 +1743,24 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kutasari</v>
+        <v>Cigoong</v>
       </c>
       <c r="E29" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>014</v>
+        <v>013</v>
       </c>
       <c r="F29" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
-        <v>010</v>
-      </c>
-      <c r="G29" s="5" t="str">
+        <v>008</v>
+      </c>
+      <c r="G29" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1588,24 +1773,24 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Cigoong</v>
+        <v>Kubangsari</v>
       </c>
       <c r="E30" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>002</v>
+        <v>015</v>
       </c>
       <c r="F30" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>009</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1618,24 +1803,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
-        <v>Kubangsari</v>
+        <v>Kubang</v>
       </c>
       <c r="E31" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
-        <v>001</v>
+        <v>005</v>
       </c>
       <c r="F31" s="2" t="str">
         <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
         <v>012</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="4" t="str">
         <f>conf!$A$2</f>
         <v>Sirnabaya</v>
       </c>
@@ -1644,18 +1829,814 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
+      <c r="B32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cigoong</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>008</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>001</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cigoong</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>012</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>006</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>011</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>006</v>
+      </c>
+      <c r="G36" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>002</v>
+      </c>
+      <c r="G37" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>004</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>008</v>
+      </c>
+      <c r="G38" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>001</v>
+      </c>
+      <c r="G39" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kutasari</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>014</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>004</v>
+      </c>
+      <c r="G40" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kutasari</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>010</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>009</v>
+      </c>
+      <c r="G41" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>012</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>015</v>
+      </c>
+      <c r="G42" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>009</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>007</v>
+      </c>
+      <c r="G43" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kutasari</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>008</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G44" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cigoong</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>005</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G45" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>014</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>007</v>
+      </c>
+      <c r="G46" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>005</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>009</v>
+      </c>
+      <c r="G47" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>003</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G48" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>001</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>012</v>
+      </c>
+      <c r="G49" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kutasari</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>006</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G50" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cigoong</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>005</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>012</v>
+      </c>
+      <c r="G51" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>012</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>010</v>
+      </c>
+      <c r="G52" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cigoong</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>015</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>002</v>
+      </c>
+      <c r="G53" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>012</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>003</v>
+      </c>
+      <c r="G54" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>001</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>003</v>
+      </c>
+      <c r="G55" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kutasari</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>013</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>004</v>
+      </c>
+      <c r="G56" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>011</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>012</v>
+      </c>
+      <c r="G57" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kutasari</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>014</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>003</v>
+      </c>
+      <c r="G58" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubangsari</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>015</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>008</v>
+      </c>
+      <c r="G59" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Kubang</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>009</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>005</v>
+      </c>
+      <c r="G60" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,4),1)</f>
+        <v>Cigoong</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),3)</f>
+        <v>002</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f ca="1">INDEX(conf!$B$2:$D$16,RANDBETWEEN(1,15),2)</f>
+        <v>004</v>
+      </c>
+      <c r="G61" s="4" t="str">
+        <f>conf!$A$2</f>
+        <v>Sirnabaya</v>
+      </c>
+      <c r="H61" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
